--- a/DOM_Banner/output/dept_banner/Marcus Hutchinson_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Marcus Hutchinson_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,348 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Meera Kapadia, Pooja S. Jagadish, Marcus Hutchinson, Liu Hong</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389051429</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Atrial fibrillation, electroconvulsive therapy, stroke risk, and anticoagulation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5043037951", "https://openalex.org/A5039150887", "https://openalex.org/A5036562112", "https://openalex.org/A5090454610"), au_display_name = c("Meera Kapadia", "Pooja S. Jagadish", "Marcus Hutchinson", "Liu Hong"), au_orcid = c(NA, "https://orcid.org/0000-0002-6167-0820", NA, "https://orcid.org/0000-0002-8276-2345"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Internal Medicine at McGovern Medical School, University of Texas Health Science Center at Houston, Houston, USA", 
-"Division of Cardiology, Department of Medicine, University of Arizona-Tucson, Tucson, USA", "Department of Medicine, University of Arizona-Tucson, Tucson, USA", "Division of Cardiology, Department of Medicine, University of Arizona-Tucson, Tucson, USA"), institution_id = c(NA, "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c(NA, "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c(NA, 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c(NA, "US", "US", "US"), institution_type = c(NA, "education", "education", "education"), institution_lineage = c(NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract Background Electroconvulsive therapy (ECT) is a therapy used to treat refractory mental health conditions, ranging from depression to catatonia, and it has gained renewed prominence in practice and the literature of late. Given that ECT involves the application of direct current to the body, there exists a risk of a change in cardiac rhythm during therapy. When atrial fibrillation is induced, ECT carries a potential risk of stroke. These risks have not been previously analyzed or summarized in the literature to allow physicians to make educated decisions about periprocedural risk and anticoagulation needs. Methods To better describe this risk, the authors reviewed PubMed for articles that described the post-ECT cardioversion of AF to sinus rhythm, new development of AF post-ECT, and new stroke after either rhythm change. Results Included were 14 studies describing 19 unique patients. Most patients had no rhythm change during at least one of many ECT sessions. Five patients converted from AF to sinus rhythm during at least one session, while AF followed ECT in seventeen patients during at least one ECT session. Four patients experienced both ECT-related cardioversion from AF to sinus rhythm as well as conversion from sinus rhythm to AF. Although no patients with a rhythm change experienced a stroke, one unanticoagulated patient who remained in AF developed a stroke post-ECT. Conclusions Electroconvulsive therapy is demonstrated to be associated with rhythm changes—from atrial fibrillation to sinus rhythm as well as from sinus rhythm to atrial fibrillation. Thus, stroke risk during and after ECT remains a possibility. The anticoagulation of patients with AF who undergo ECT should be based on individual stroke risk factors, using validated stroke risk models, rather than prescribed routinely.</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>The Egyptian Heart Journal</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The Egyptian Heart Journal</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764808870</t>
+          <t>https://doi.org/10.1186/s43044-023-00409-7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1110-2608</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38010438</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1186/s43044-023-00409-7</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://tehj.springeropen.com/counter/pdf/10.1186/s43044-023-00409-7</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://tehj.springeropen.com/counter/pdf/10.1186/s43044-023-00409-7</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4389051429</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4389051429", doi = "https://doi.org/10.1186/s43044-023-00409-7", pmid = "https://pubmed.ncbi.nlm.nih.gov/38010438")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1186/s43044-023-00409-7</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W25611787", "https://openalex.org/W30453343", "https://openalex.org/W36015888", "https://openalex.org/W104813966", "https://openalex.org/W1862836317", "https://openalex.org/W1986100320", "https://openalex.org/W2012942841", "https://openalex.org/W2024557283", "https://openalex.org/W2042134470", "https://openalex.org/W2051212900", "https://openalex.org/W2067717811", "https://openalex.org/W2072629159", "https://openalex.org/W2083674641", "https://openalex.org/W2084466802", "https://openalex.org/W2088099997", 
-"https://openalex.org/W2090880227", "https://openalex.org/W2126060760", "https://openalex.org/W2137722844", "https://openalex.org/W2144129024", "https://openalex.org/W2162586165", "https://openalex.org/W2164728490", "https://openalex.org/W2406018168", "https://openalex.org/W2410636397", "https://openalex.org/W2461718090", "https://openalex.org/W2909767599", "https://openalex.org/W2912772408", "https://openalex.org/W2987985090", "https://openalex.org/W3008324374", "https://openalex.org/W3082188176", 
-"https://openalex.org/W3108761296", "https://openalex.org/W3112785303", "https://openalex.org/W3162243713", "https://openalex.org/W3187053884", "https://openalex.org/W3202176349", "https://openalex.org/W4226283186", "https://openalex.org/W4239364273", "https://openalex.org/W4310122329")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2021703221", "https://openalex.org/W2561302380", "https://openalex.org/W2035721221", "https://openalex.org/W313311422", "https://openalex.org/W1968320979", "https://openalex.org/W1984293993", "https://openalex.org/W2125089274", "https://openalex.org/W1987893825", "https://openalex.org/W1981070043", "https://openalex.org/W2004038647")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Marcus Hutchinson_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Marcus Hutchinson_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine at McGovern Medical School, University of Texas Health Science Center at Houston, Houston, USA; Division of Cardiology, Department of Medicine, University of Arizona-Tucson, Tucson, USA; Department of Medicine, University of Arizona-Tucson, Tucson, USA; Division of Cardiology, Department of Medicine, University of Arizona-Tucson, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389051429</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Atrial fibrillation, electroconvulsive therapy, stroke risk, and anticoagulation</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Egyptian Heart Journal</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s43044-023-00409-7</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38010438</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s43044-023-00409-7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
